--- a/emotion.xlsx
+++ b/emotion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bdcd253626b7342/桌面/song_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{024A765C-CFC3-4343-BDAD-1AC3E48DEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3431BA2-66E4-404D-BCEC-4C01DAAF35D9}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{024A765C-CFC3-4343-BDAD-1AC3E48DEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DAF94A8-23FE-4050-BFCA-EE69AA6F5DE7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A23FC6A0-9B09-42CC-9A30-0BD3D46B9567}"/>
+    <workbookView xWindow="1848" yWindow="924" windowWidth="21192" windowHeight="11316" xr2:uid="{A23FC6A0-9B09-42CC-9A30-0BD3D46B9567}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>歌手</t>
   </si>
@@ -66,16 +66,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>法國浪漫告白、戀愛初期追求、幸福日常、收到愛意、對方是全部</t>
-  </si>
-  <si>
     <t>約 2.6 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bu7nU9Mhpyo</t>
-  </si>
-  <si>
     <t>你，好不好？</t>
   </si>
   <si>
@@ -85,16 +79,10 @@
     <t>懊悔、思念、無助、不捨、期待</t>
   </si>
   <si>
-    <t>分手後懊悔、懇求回頭、回想過去、曾被愛的感受、無法放下</t>
-  </si>
-  <si>
     <t>約 2.5 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3r8gL1vU5vA</t>
-  </si>
-  <si>
     <t>光年之外</t>
   </si>
   <si>
@@ -105,16 +93,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>亂世中相愛、穿越時空守護、為愛不顧一切、對抗命運、夢境相擁</t>
-  </si>
-  <si>
     <t>約 2.9 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=8UVNT4wvIGY</t>
-  </si>
-  <si>
     <t>我的歌聲裡</t>
   </si>
   <si>
@@ -125,13 +107,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>愛來去無預警、獨自承受後遺症、記憶裡的愛、失去的愛、用歌聲懷念</t>
-  </si>
-  <si>
-    <t>https://youtu.be/w0dMz8RBG7g?si=ZInOauG1OVOkDnzv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>不為誰而作的歌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -142,34 +117,20 @@
     <t>自省、愧疚、疲憊、惆悵、探尋</t>
   </si>
   <si>
-    <t>成長中迷失、夜深反思、遺忘重要之人、默默支持被忽略、追尋記憶中她</t>
-  </si>
-  <si>
     <t>約 1.6 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/gd38-X3HpbM?si=FvkXg2AVnDHUr7Kf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>以後別做朋友</t>
   </si>
   <si>
     <t>壓抑、遺憾、思念、心痛、無奈</t>
   </si>
   <si>
-    <t>暗戀朋友、壓抑感情、錯過彼此、看著幸福卻不能參與、最終放手祝福</t>
-  </si>
-  <si>
     <t>約 2.2 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/Ew4VvF0DPMc?si=f2W31Q979NJqDNGk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>漂向北方</t>
   </si>
   <si>
@@ -179,17 +140,10 @@
     <t>惆悵、疲憊、掙扎、孤單、失落</t>
   </si>
   <si>
-    <t>北漂打拼、夢想與現實衝突、城市吞噬個體、思念家人、無力翻身</t>
-  </si>
-  <si>
     <t>約 1.9 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/qIF8xvSA0Gw?si=ZUYOh97jFC0ZXWlE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>演員</t>
   </si>
   <si>
@@ -199,26 +153,16 @@
     <t>壓抑、諷刺、心痛、無奈、成全</t>
   </si>
   <si>
-    <t>愛情假象、被動應對破裂、假裝堅強、情感拉扯、無聲結束</t>
-  </si>
-  <si>
     <t>約 224 萬次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://youtu.be/XaN3kUz4KSw?si=kRJvYSJnhA_Fi19d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>修煉愛情</t>
   </si>
   <si>
     <t>哀傷、懷念、無奈、成長、自責</t>
   </si>
   <si>
-    <t>失去摯愛、懷念過去、療癒自我、努力釋懷、將痛化為力量</t>
-  </si>
-  <si>
     <t>約 1.5 億次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -230,19 +174,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>錯過初戀後的懷念、青春回憶、被守護卻沒察覺、祝福對方幸福</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	圖片連結</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>歌詞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/GCgvpwLNvtY/maxresdefault.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +214,70 @@
 可我已失去為你淚流滿面的權利
 但願在我看不到的天際 你張開了雙翼
 遇見你的註定 喔哦 她會有多幸運?</t>
+  </si>
+  <si>
+    <t>圖片連結</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/_sQSXwdtxlY/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP5K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP6K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP7K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP8K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP9K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP10K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP11K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP12K</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP13K</t>
+  </si>
+  <si>
+    <t>全部、錯過初戀後的懷念、青春回憶、被守護卻沒察覺、祝福對方幸福</t>
+  </si>
+  <si>
+    <t>全部、法國浪漫告白、戀愛初期追求、幸福日常、收到愛意、對方是全部</t>
+  </si>
+  <si>
+    <t>全部、分手後懊悔、懇求回頭、回想過去、曾被愛的感受、無法放下</t>
+  </si>
+  <si>
+    <t>全部、亂世中相愛、穿越時空守護、為愛不顧一切、對抗命運、夢境相擁</t>
+  </si>
+  <si>
+    <t>全部、愛來去無預警、獨自承受後遺症、記憶裡的愛、失去的愛、用歌聲懷念</t>
+  </si>
+  <si>
+    <t>全部、成長中迷失、夜深反思、遺忘重要之人、默默支持被忽略、追尋記憶中她</t>
+  </si>
+  <si>
+    <t>全部、暗戀朋友、壓抑感情、錯過彼此、看著幸福卻不能參與、最終放手祝福</t>
+  </si>
+  <si>
+    <t>全部、北漂打拼、夢想與現實衝突、城市吞噬個體、思念家人、無力翻身</t>
+  </si>
+  <si>
+    <t>全部、愛情假象、被動應對破裂、假裝堅強、情感拉扯、無聲結束</t>
+  </si>
+  <si>
+    <t>全部、失去摯愛、懷念過去、療癒自我、努力釋懷、將痛化為力量</t>
   </si>
 </sst>
 </file>
@@ -730,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24307CAD-F3E3-4EE2-AED2-6107A2EE9E2E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -742,13 +738,13 @@
     <col min="4" max="4" width="78.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.21875" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -766,10 +762,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -780,10 +776,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -792,10 +788,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -809,244 +805,234 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{2D4E9BAA-42F5-4A6F-9DB0-261BF372A2BF}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6B2106E6-F7AF-455A-8BC6-434CA27C4236}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{79E26210-C14E-40D4-96A9-C1A958D2F040}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{8AC2B2E9-8883-4434-8A8C-D8738A9A27BA}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{0DCB6800-5D71-4E1A-9E9E-5B0B1F13A04E}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{5043A4FF-CFE8-4720-941A-987AF11E659E}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{E0342B87-E9E4-417E-A733-33DEE747DC8F}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{62FE9FC4-0AD3-4C19-9073-D2D541E99CE0}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{03721107-6CFC-431B-B770-F01B5FCE3523}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{14C27EC7-8D23-426C-9142-5E39D4BAF3B8}"/>
-    <hyperlink ref="G2" r:id="rId11" xr:uid="{21DE8139-C9A5-4BF8-9886-46C8CD3D737F}"/>
-    <hyperlink ref="G3:G11" r:id="rId12" display="https://i.ytimg.com/vi/GCgvpwLNvtY/maxresdefault.jpg" xr:uid="{5C19826E-49AB-4789-B797-7C49C3C5C93E}"/>
+    <hyperlink ref="F3:F11" r:id="rId2" display="https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP4K" xr:uid="{5C2719F1-DE89-4897-A6A1-BB61349BB1D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emotion.xlsx
+++ b/emotion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bdcd253626b7342/桌面/song_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bdcd253626b7342/桌面/emotion_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{024A765C-CFC3-4343-BDAD-1AC3E48DEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DAF94A8-23FE-4050-BFCA-EE69AA6F5DE7}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{024A765C-CFC3-4343-BDAD-1AC3E48DEA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5F6F0F-DEDE-4BDF-B2A9-AFF476ADAE39}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="924" windowWidth="21192" windowHeight="11316" xr2:uid="{A23FC6A0-9B09-42CC-9A30-0BD3D46B9567}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>歌手</t>
   </si>
@@ -279,12 +279,20 @@
   <si>
     <t>全部、失去摯愛、懷念過去、療癒自我、努力釋懷、將痛化為力量</t>
   </si>
+  <si>
+    <t>語言</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>華語</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +355,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,7 +405,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +424,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -724,25 +743,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24307CAD-F3E3-4EE2-AED2-6107A2EE9E2E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="78.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.21875" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="78.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.21875" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
@@ -755,20 +775,23 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -782,19 +805,22 @@
         <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -808,19 +834,22 @@
         <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -834,19 +863,22 @@
         <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -860,19 +892,22 @@
         <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -886,19 +921,22 @@
         <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -912,19 +950,22 @@
         <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -938,19 +979,22 @@
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -964,19 +1008,22 @@
         <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -990,19 +1037,22 @@
         <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1016,23 +1066,26 @@
         <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{2D4E9BAA-42F5-4A6F-9DB0-261BF372A2BF}"/>
-    <hyperlink ref="F3:F11" r:id="rId2" display="https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP4K" xr:uid="{5C2719F1-DE89-4897-A6A1-BB61349BB1D2}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2D4E9BAA-42F5-4A6F-9DB0-261BF372A2BF}"/>
+    <hyperlink ref="G3:G11" r:id="rId2" display="https://youtu.be/_sQSXwdtxlY?si=EAFky1gYVl5wdP4K" xr:uid="{5C2719F1-DE89-4897-A6A1-BB61349BB1D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
